--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneEditing.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneEditing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020-ETDR\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Case</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>SELECT BENEFICIARY_NAME FROM DC_TRANSACTION DT where DT.TRANSACTION_ID='</t>
+  </si>
+  <si>
+    <t>account_no</t>
   </si>
 </sst>
 </file>
@@ -381,61 +384,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneEditing.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneEditing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL_Automation_13102020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>When user want to edit beneficiary</t>
-  </si>
-  <si>
     <t>Beneficiary details has been updated successfully.</t>
   </si>
   <si>
@@ -65,17 +62,89 @@
     <t>SELECT BENEFICIARY_NAME FROM DC_TRANSACTION DT where DT.TRANSACTION_ID='</t>
   </si>
   <si>
+    <t>asfand</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>hani</t>
+  </si>
+  <si>
+    <t>03472709133</t>
+  </si>
+  <si>
+    <t>00000000000</t>
+  </si>
+  <si>
+    <t>Zaid</t>
+  </si>
+  <si>
+    <t>u@u.com</t>
+  </si>
+  <si>
+    <t>Usman</t>
+  </si>
+  <si>
     <t>account_no</t>
+  </si>
+  <si>
+    <t>016020005202378</t>
+  </si>
+  <si>
+    <t>06350010046515330017</t>
+  </si>
+  <si>
+    <t>03334961458</t>
+  </si>
+  <si>
+    <t>02840103423929</t>
+  </si>
+  <si>
+    <t>Iqbal</t>
+  </si>
+  <si>
+    <t>03334900121</t>
+  </si>
+  <si>
+    <t>sadasd</t>
+  </si>
+  <si>
+    <t>To verify bene updation without editing Bene_Updation</t>
+  </si>
+  <si>
+    <t>To verify bene updation with mobile number update Bene_Updation</t>
+  </si>
+  <si>
+    <t>To very bene updation with email update Bene_Updation</t>
+  </si>
+  <si>
+    <t>To very bene updation with nick update Bene_Updation</t>
+  </si>
+  <si>
+    <t>To very bene updation null nick field Bene_Updation</t>
+  </si>
+  <si>
+    <t>To very bene updation null email field Bene_Updation</t>
+  </si>
+  <si>
+    <t>To very bene updation null mobile num field Bene_Updation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,9 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,17 +458,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="1" customWidth="1"/>
     <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="185.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="78.85546875" bestFit="1" customWidth="1"/>
@@ -404,47 +479,267 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1726524101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1726524101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneEditing.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneEditing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Case</t>
   </si>
@@ -74,9 +74,6 @@
     <t>03472709133</t>
   </si>
   <si>
-    <t>00000000000</t>
-  </si>
-  <si>
     <t>Zaid</t>
   </si>
   <si>
@@ -129,6 +126,18 @@
   </si>
   <si>
     <t>To very bene updation null mobile num field Bene_Updation</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>03001212000</t>
   </si>
 </sst>
 </file>
@@ -458,288 +467,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="185.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="185.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="78.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1726524101</v>
+      </c>
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1726524101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1726524101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1726524101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneEditing.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneEditing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-16122020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
   <si>
     <t>Case</t>
   </si>
@@ -138,6 +138,54 @@
   </si>
   <si>
     <t>03001212000</t>
+  </si>
+  <si>
+    <t>bene_op_type_query</t>
+  </si>
+  <si>
+    <t>bene_op_value</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>db_val</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC'</t>
+  </si>
+  <si>
+    <t>SELECT BENE_OPERATION_TYPE FROM DC_TRANSACTION DT where DT.TRANSACTION_ID='{TRANSACTION_ID}'</t>
+  </si>
+  <si>
+    <t>SELECT K.TO_ACCOUNT FROM DC_TRANSACTION K WHERE K.TRANSACTION_ID = '{TRANSACTION_ID}'</t>
+  </si>
+  <si>
+    <t>to_account_query</t>
+  </si>
+  <si>
+    <t>account_title_query</t>
+  </si>
+  <si>
+    <t>SELECT K.FT_TO_ACCOUNT_TITLE FROM DC_TRANSACTION K WHERE K.TRANSACTION_ID = '{TRANSACTION_ID}'</t>
+  </si>
+  <si>
+    <t>bene_bank_query</t>
+  </si>
+  <si>
+    <t>SELECT K.BENEFICIARY_BANK FROM DC_TRANSACTION K WHERE K.TRANSACTION_ID = '{TRANSACTION_ID}'</t>
+  </si>
+  <si>
+    <t>bene_id_tran_query</t>
+  </si>
+  <si>
+    <t>bene_id_query</t>
+  </si>
+  <si>
+    <t>SELECT BENEFICIARY_ID FROM DC_TRANSACTION K WHERE K.TRANSACTION_ID = '{TRANSACTION_ID}'</t>
+  </si>
+  <si>
+    <t>SELECT FUND_TRANSFER_BENEFICIARY_ID FROM DC_FUND_TRANSFER_BENEFICIARY K WHERE K.CUSTOMER_INFO_ID = (Select CUSTOMER_INFO_ID from DC_CUSTOMER_INFO L WHERE L.CUSTOMER_NAME = '{customer_name}' ) and K.ACCOUNT_NO = '{account_number}'</t>
   </si>
 </sst>
 </file>
@@ -467,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,9 +531,17 @@
     <col min="8" max="8" width="185.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="72.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="78.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="100.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="92.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="100.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="97.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="244" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +572,32 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -548,8 +628,32 @@
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -580,8 +684,32 @@
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -612,8 +740,32 @@
       <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -644,8 +796,32 @@
       <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -674,8 +850,32 @@
       <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -703,8 +903,32 @@
       <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -733,31 +957,55 @@
       <c r="J8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="E9" s="4"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
